--- a/lab1_oil_drop/lab2_data.xlsx
+++ b/lab1_oil_drop/lab2_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/link/PycharmProjects/128AL/lab1_oil_drop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EE2A63-4F73-7441-BFCD-6BE1CD5F8055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72553F18-AA08-F94B-B231-9420B4FD5719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -952,15 +952,23 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -975,14 +983,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1709,8 +1709,8 @@
   </sheetPr>
   <dimension ref="A1:AC1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2420,13 +2420,13 @@
       <c r="M19" s="14"/>
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
-      <c r="P19" s="103" t="s">
+      <c r="P19" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="Q19" s="92"/>
-      <c r="R19" s="92"/>
-      <c r="S19" s="92"/>
-      <c r="T19" s="92"/>
+      <c r="Q19" s="93"/>
+      <c r="R19" s="93"/>
+      <c r="S19" s="93"/>
+      <c r="T19" s="93"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
@@ -2441,30 +2441,30 @@
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="16"/>
-      <c r="D20" s="91" t="s">
+      <c r="D20" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="92"/>
-      <c r="J20" s="93" t="s">
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="92"/>
-      <c r="L20" s="92"/>
-      <c r="M20" s="92"/>
-      <c r="N20" s="92"/>
-      <c r="O20" s="92"/>
-      <c r="P20" s="95" t="s">
+      <c r="K20" s="93"/>
+      <c r="L20" s="93"/>
+      <c r="M20" s="93"/>
+      <c r="N20" s="93"/>
+      <c r="O20" s="93"/>
+      <c r="P20" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="Q20" s="92"/>
-      <c r="R20" s="95" t="s">
+      <c r="Q20" s="93"/>
+      <c r="R20" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="S20" s="92"/>
+      <c r="S20" s="93"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
@@ -3582,13 +3582,13 @@
       <c r="M41" s="40"/>
       <c r="N41" s="40"/>
       <c r="O41" s="41"/>
-      <c r="P41" s="103" t="s">
+      <c r="P41" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="Q41" s="92"/>
-      <c r="R41" s="92"/>
-      <c r="S41" s="92"/>
-      <c r="T41" s="92"/>
+      <c r="Q41" s="93"/>
+      <c r="R41" s="93"/>
+      <c r="S41" s="93"/>
+      <c r="T41" s="93"/>
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
@@ -3603,30 +3603,30 @@
       <c r="A42" s="42"/>
       <c r="B42" s="15"/>
       <c r="C42" s="16"/>
-      <c r="D42" s="91" t="s">
+      <c r="D42" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="92"/>
-      <c r="F42" s="92"/>
-      <c r="G42" s="92"/>
-      <c r="H42" s="92"/>
-      <c r="I42" s="92"/>
-      <c r="J42" s="93" t="s">
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="93"/>
+      <c r="H42" s="93"/>
+      <c r="I42" s="93"/>
+      <c r="J42" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="K42" s="92"/>
-      <c r="L42" s="92"/>
-      <c r="M42" s="92"/>
-      <c r="N42" s="92"/>
-      <c r="O42" s="94"/>
-      <c r="P42" s="95" t="s">
+      <c r="K42" s="93"/>
+      <c r="L42" s="93"/>
+      <c r="M42" s="93"/>
+      <c r="N42" s="93"/>
+      <c r="O42" s="98"/>
+      <c r="P42" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="Q42" s="92"/>
-      <c r="R42" s="95" t="s">
+      <c r="Q42" s="93"/>
+      <c r="R42" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="S42" s="92"/>
+      <c r="S42" s="93"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
@@ -3707,13 +3707,13 @@
       <c r="AC43" s="3"/>
     </row>
     <row r="44" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A44" s="96" t="s">
+      <c r="A44" s="100" t="s">
         <v>44</v>
       </c>
       <c r="B44" s="3">
         <v>1</v>
       </c>
-      <c r="C44" s="98">
+      <c r="C44" s="102">
         <v>1</v>
       </c>
       <c r="D44" s="26">
@@ -3766,11 +3766,11 @@
       <c r="AC44" s="3"/>
     </row>
     <row r="45" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A45" s="97"/>
+      <c r="A45" s="101"/>
       <c r="B45" s="3">
         <v>1</v>
       </c>
-      <c r="C45" s="92"/>
+      <c r="C45" s="93"/>
       <c r="D45" s="26">
         <v>43.1</v>
       </c>
@@ -3819,11 +3819,11 @@
       <c r="AC45" s="3"/>
     </row>
     <row r="46" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A46" s="97"/>
+      <c r="A46" s="101"/>
       <c r="B46" s="3">
         <v>2</v>
       </c>
-      <c r="C46" s="92"/>
+      <c r="C46" s="93"/>
       <c r="D46" s="26">
         <v>98.02</v>
       </c>
@@ -3870,11 +3870,11 @@
       <c r="AC46" s="3"/>
     </row>
     <row r="47" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A47" s="97"/>
+      <c r="A47" s="101"/>
       <c r="B47" s="25">
         <v>2</v>
       </c>
-      <c r="C47" s="92"/>
+      <c r="C47" s="93"/>
       <c r="D47" s="32"/>
       <c r="E47" s="25"/>
       <c r="F47" s="25"/>
@@ -3912,11 +3912,11 @@
       <c r="AC47" s="3"/>
     </row>
     <row r="48" spans="1:29" ht="13">
-      <c r="A48" s="97"/>
+      <c r="A48" s="101"/>
       <c r="B48" s="3">
         <v>3</v>
       </c>
-      <c r="C48" s="92"/>
+      <c r="C48" s="93"/>
       <c r="D48" s="26">
         <v>151.77000000000001</v>
       </c>
@@ -3969,11 +3969,11 @@
       <c r="AC48" s="3"/>
     </row>
     <row r="49" spans="1:29" ht="13">
-      <c r="A49" s="97"/>
+      <c r="A49" s="101"/>
       <c r="B49" s="3">
         <v>4</v>
       </c>
-      <c r="C49" s="92"/>
+      <c r="C49" s="93"/>
       <c r="D49" s="26">
         <v>190.21</v>
       </c>
@@ -4029,11 +4029,11 @@
       <c r="AC49" s="3"/>
     </row>
     <row r="50" spans="1:29" ht="13">
-      <c r="A50" s="97"/>
+      <c r="A50" s="101"/>
       <c r="B50" s="3">
         <v>5</v>
       </c>
-      <c r="C50" s="99">
+      <c r="C50" s="103">
         <v>2</v>
       </c>
       <c r="D50" s="31">
@@ -4082,9 +4082,9 @@
       <c r="AC50" s="3"/>
     </row>
     <row r="51" spans="1:29" ht="13">
-      <c r="A51" s="97"/>
+      <c r="A51" s="101"/>
       <c r="B51" s="3"/>
-      <c r="C51" s="92"/>
+      <c r="C51" s="93"/>
       <c r="D51" s="26">
         <v>267.24</v>
       </c>
@@ -4143,9 +4143,9 @@
       <c r="AC51" s="3"/>
     </row>
     <row r="52" spans="1:29" ht="13">
-      <c r="A52" s="97"/>
+      <c r="A52" s="101"/>
       <c r="B52" s="3"/>
-      <c r="C52" s="92"/>
+      <c r="C52" s="93"/>
       <c r="D52" s="26"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3">
@@ -4207,13 +4207,13 @@
       <c r="AC52" s="3"/>
     </row>
     <row r="53" spans="1:29" ht="13">
-      <c r="A53" s="100" t="s">
+      <c r="A53" s="104" t="s">
         <v>48</v>
       </c>
       <c r="B53" s="28">
         <v>1</v>
       </c>
-      <c r="C53" s="102">
+      <c r="C53" s="97">
         <v>1</v>
       </c>
       <c r="D53" s="31">
@@ -4262,9 +4262,9 @@
       <c r="AC53" s="3"/>
     </row>
     <row r="54" spans="1:29" ht="13">
-      <c r="A54" s="97"/>
+      <c r="A54" s="101"/>
       <c r="B54" s="3"/>
-      <c r="C54" s="94"/>
+      <c r="C54" s="98"/>
       <c r="D54" s="26">
         <v>36.67</v>
       </c>
@@ -4311,9 +4311,9 @@
       <c r="AC54" s="3"/>
     </row>
     <row r="55" spans="1:29" ht="13">
-      <c r="A55" s="97"/>
+      <c r="A55" s="101"/>
       <c r="B55" s="3"/>
-      <c r="C55" s="94"/>
+      <c r="C55" s="98"/>
       <c r="D55" s="26">
         <v>47.12</v>
       </c>
@@ -4354,11 +4354,11 @@
       <c r="AC55" s="3"/>
     </row>
     <row r="56" spans="1:29" ht="28">
-      <c r="A56" s="97"/>
+      <c r="A56" s="101"/>
       <c r="B56" s="3">
         <v>2</v>
       </c>
-      <c r="C56" s="94"/>
+      <c r="C56" s="98"/>
       <c r="D56" s="26">
         <v>87.62</v>
       </c>
@@ -4407,9 +4407,9 @@
       <c r="AC56" s="3"/>
     </row>
     <row r="57" spans="1:29" ht="13">
-      <c r="A57" s="97"/>
+      <c r="A57" s="101"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="94"/>
+      <c r="C57" s="98"/>
       <c r="D57" s="26">
         <v>97.22</v>
       </c>
@@ -4462,11 +4462,11 @@
       <c r="AC57" s="3"/>
     </row>
     <row r="58" spans="1:29" ht="13">
-      <c r="A58" s="97"/>
+      <c r="A58" s="101"/>
       <c r="B58" s="3">
         <v>3</v>
       </c>
-      <c r="C58" s="94"/>
+      <c r="C58" s="98"/>
       <c r="D58" s="26">
         <v>150.97</v>
       </c>
@@ -4513,9 +4513,9 @@
       <c r="AC58" s="3"/>
     </row>
     <row r="59" spans="1:29" ht="13">
-      <c r="A59" s="97"/>
+      <c r="A59" s="101"/>
       <c r="B59" s="3"/>
-      <c r="C59" s="94"/>
+      <c r="C59" s="98"/>
       <c r="D59" s="26">
         <v>161.03</v>
       </c>
@@ -4580,9 +4580,9 @@
       <c r="AC59" s="3"/>
     </row>
     <row r="60" spans="1:29" ht="13">
-      <c r="A60" s="97"/>
+      <c r="A60" s="101"/>
       <c r="B60" s="3"/>
-      <c r="C60" s="94"/>
+      <c r="C60" s="98"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3">
@@ -4629,11 +4629,11 @@
       <c r="AC60" s="3"/>
     </row>
     <row r="61" spans="1:29" ht="13">
-      <c r="A61" s="97"/>
+      <c r="A61" s="101"/>
       <c r="B61" s="3">
         <v>1</v>
       </c>
-      <c r="C61" s="102">
+      <c r="C61" s="97">
         <v>2</v>
       </c>
       <c r="D61" s="28">
@@ -4682,9 +4682,9 @@
       <c r="AC61" s="3"/>
     </row>
     <row r="62" spans="1:29" ht="13">
-      <c r="A62" s="97"/>
+      <c r="A62" s="101"/>
       <c r="B62" s="3"/>
-      <c r="C62" s="94"/>
+      <c r="C62" s="98"/>
       <c r="D62" s="3">
         <v>201.72</v>
       </c>
@@ -4731,11 +4731,11 @@
       <c r="AC62" s="3"/>
     </row>
     <row r="63" spans="1:29" ht="13">
-      <c r="A63" s="97"/>
+      <c r="A63" s="101"/>
       <c r="B63" s="3">
         <v>2</v>
       </c>
-      <c r="C63" s="94"/>
+      <c r="C63" s="98"/>
       <c r="D63" s="3">
         <v>235.19</v>
       </c>
@@ -4782,9 +4782,9 @@
       <c r="AC63" s="3"/>
     </row>
     <row r="64" spans="1:29" ht="13">
-      <c r="A64" s="97"/>
+      <c r="A64" s="101"/>
       <c r="B64" s="3"/>
-      <c r="C64" s="94"/>
+      <c r="C64" s="98"/>
       <c r="D64" s="3">
         <v>243.74</v>
       </c>
@@ -4831,9 +4831,9 @@
       <c r="AC64" s="3"/>
     </row>
     <row r="65" spans="1:29" ht="13">
-      <c r="A65" s="97"/>
+      <c r="A65" s="101"/>
       <c r="B65" s="25"/>
-      <c r="C65" s="94"/>
+      <c r="C65" s="98"/>
       <c r="D65" s="32"/>
       <c r="E65" s="25"/>
       <c r="F65" s="25"/>
@@ -4871,11 +4871,11 @@
       <c r="AC65" s="3"/>
     </row>
     <row r="66" spans="1:29" ht="13">
-      <c r="A66" s="97"/>
+      <c r="A66" s="101"/>
       <c r="B66" s="3">
         <v>3</v>
       </c>
-      <c r="C66" s="94"/>
+      <c r="C66" s="98"/>
       <c r="D66" s="3">
         <v>268.79000000000002</v>
       </c>
@@ -4922,9 +4922,9 @@
       <c r="AC66" s="3"/>
     </row>
     <row r="67" spans="1:29" ht="13">
-      <c r="A67" s="97"/>
+      <c r="A67" s="101"/>
       <c r="B67" s="3"/>
-      <c r="C67" s="94"/>
+      <c r="C67" s="98"/>
       <c r="D67" s="3">
         <v>278.77</v>
       </c>
@@ -4983,9 +4983,9 @@
       <c r="AC67" s="3"/>
     </row>
     <row r="68" spans="1:29" ht="13">
-      <c r="A68" s="97"/>
+      <c r="A68" s="101"/>
       <c r="B68" s="3"/>
-      <c r="C68" s="94"/>
+      <c r="C68" s="98"/>
       <c r="D68" s="26"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -5035,11 +5035,11 @@
       <c r="AC68" s="3"/>
     </row>
     <row r="69" spans="1:29" ht="13">
-      <c r="A69" s="97"/>
+      <c r="A69" s="101"/>
       <c r="B69" s="3">
         <v>1</v>
       </c>
-      <c r="C69" s="102">
+      <c r="C69" s="97">
         <v>3</v>
       </c>
       <c r="D69" s="28">
@@ -5088,9 +5088,9 @@
       <c r="AC69" s="3"/>
     </row>
     <row r="70" spans="1:29" ht="13">
-      <c r="A70" s="97"/>
+      <c r="A70" s="101"/>
       <c r="B70" s="3"/>
-      <c r="C70" s="94"/>
+      <c r="C70" s="98"/>
       <c r="D70" s="3">
         <v>315.10000000000002</v>
       </c>
@@ -5137,9 +5137,9 @@
       <c r="AC70" s="3"/>
     </row>
     <row r="71" spans="1:29" ht="13">
-      <c r="A71" s="97"/>
+      <c r="A71" s="101"/>
       <c r="B71" s="3"/>
-      <c r="C71" s="94"/>
+      <c r="C71" s="98"/>
       <c r="D71" s="3">
         <v>325.06</v>
       </c>
@@ -5186,9 +5186,9 @@
       <c r="AC71" s="3"/>
     </row>
     <row r="72" spans="1:29" ht="13">
-      <c r="A72" s="97"/>
+      <c r="A72" s="101"/>
       <c r="B72" s="3"/>
-      <c r="C72" s="94"/>
+      <c r="C72" s="98"/>
       <c r="D72" s="3">
         <v>334.54</v>
       </c>
@@ -5247,11 +5247,11 @@
       <c r="AC72" s="3"/>
     </row>
     <row r="73" spans="1:29" ht="13">
-      <c r="A73" s="97"/>
+      <c r="A73" s="101"/>
       <c r="B73" s="3">
         <v>2</v>
       </c>
-      <c r="C73" s="94"/>
+      <c r="C73" s="98"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
@@ -5289,9 +5289,9 @@
       <c r="AC73" s="3"/>
     </row>
     <row r="74" spans="1:29" ht="13">
-      <c r="A74" s="97"/>
+      <c r="A74" s="101"/>
       <c r="B74" s="3"/>
-      <c r="C74" s="94"/>
+      <c r="C74" s="98"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
@@ -5329,11 +5329,11 @@
       <c r="AC74" s="3"/>
     </row>
     <row r="75" spans="1:29" ht="13">
-      <c r="A75" s="97"/>
+      <c r="A75" s="101"/>
       <c r="B75" s="3">
         <v>3</v>
       </c>
-      <c r="C75" s="94"/>
+      <c r="C75" s="98"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
@@ -5371,9 +5371,9 @@
       <c r="AC75" s="3"/>
     </row>
     <row r="76" spans="1:29" ht="13">
-      <c r="A76" s="97"/>
+      <c r="A76" s="101"/>
       <c r="B76" s="3"/>
-      <c r="C76" s="94"/>
+      <c r="C76" s="98"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -5417,11 +5417,11 @@
       <c r="AC76" s="3"/>
     </row>
     <row r="77" spans="1:29" ht="13">
-      <c r="A77" s="97"/>
+      <c r="A77" s="101"/>
       <c r="B77" s="3">
         <v>4</v>
       </c>
-      <c r="C77" s="94"/>
+      <c r="C77" s="98"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -5459,9 +5459,9 @@
       <c r="AC77" s="3"/>
     </row>
     <row r="78" spans="1:29" ht="13">
-      <c r="A78" s="97"/>
+      <c r="A78" s="101"/>
       <c r="B78" s="3"/>
-      <c r="C78" s="94"/>
+      <c r="C78" s="98"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -5499,9 +5499,9 @@
       <c r="AC78" s="3"/>
     </row>
     <row r="79" spans="1:29" ht="42">
-      <c r="A79" s="101"/>
+      <c r="A79" s="105"/>
       <c r="B79" s="33"/>
-      <c r="C79" s="104"/>
+      <c r="C79" s="99"/>
       <c r="D79" s="33"/>
       <c r="E79" s="33" t="s">
         <v>50</v>
@@ -5690,22 +5690,22 @@
       <c r="A84" s="42"/>
       <c r="B84" s="15"/>
       <c r="C84" s="16"/>
-      <c r="D84" s="91" t="s">
+      <c r="D84" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="E84" s="92"/>
-      <c r="F84" s="92"/>
-      <c r="G84" s="92"/>
-      <c r="H84" s="92"/>
-      <c r="I84" s="92"/>
-      <c r="J84" s="93" t="s">
+      <c r="E84" s="93"/>
+      <c r="F84" s="93"/>
+      <c r="G84" s="93"/>
+      <c r="H84" s="93"/>
+      <c r="I84" s="93"/>
+      <c r="J84" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="K84" s="92"/>
-      <c r="L84" s="92"/>
-      <c r="M84" s="92"/>
-      <c r="N84" s="92"/>
-      <c r="O84" s="94"/>
+      <c r="K84" s="93"/>
+      <c r="L84" s="93"/>
+      <c r="M84" s="93"/>
+      <c r="N84" s="93"/>
+      <c r="O84" s="98"/>
       <c r="P84" s="3"/>
       <c r="Q84" s="3"/>
       <c r="R84" s="3"/>
@@ -34149,16 +34149,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="P19:T19"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="J20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="P41:T41"/>
-    <mergeCell ref="D42:I42"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="C61:C68"/>
-    <mergeCell ref="C69:C79"/>
     <mergeCell ref="D84:I84"/>
     <mergeCell ref="J84:O84"/>
     <mergeCell ref="J42:O42"/>
@@ -34168,6 +34158,16 @@
     <mergeCell ref="C50:C52"/>
     <mergeCell ref="A53:A79"/>
     <mergeCell ref="C53:C60"/>
+    <mergeCell ref="P41:T41"/>
+    <mergeCell ref="D42:I42"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="C61:C68"/>
+    <mergeCell ref="C69:C79"/>
+    <mergeCell ref="P19:T19"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="J20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="R20:S20"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34182,7 +34182,7 @@
   <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G11"/>
+      <selection activeCell="F2" sqref="F2:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -34245,7 +34245,7 @@
       <c r="E2" s="51">
         <v>2.09</v>
       </c>
-      <c r="F2" s="105">
+      <c r="F2" s="91">
         <v>3.77E-19</v>
       </c>
       <c r="G2" s="50">
@@ -34329,7 +34329,7 @@
       <c r="E4" s="51">
         <v>2.09</v>
       </c>
-      <c r="F4" s="105">
+      <c r="F4" s="91">
         <v>1.5100000000000001E-18</v>
       </c>
       <c r="G4" s="52">
@@ -34371,7 +34371,7 @@
       <c r="E5" s="51">
         <v>2.09</v>
       </c>
-      <c r="F5" s="105">
+      <c r="F5" s="91">
         <v>1.6900000000000001E-18</v>
       </c>
       <c r="G5" s="52">
@@ -34413,7 +34413,7 @@
       <c r="E6" s="51">
         <v>2.09</v>
       </c>
-      <c r="F6" s="105">
+      <c r="F6" s="91">
         <v>2.24E-18</v>
       </c>
       <c r="G6" s="52">
@@ -34455,7 +34455,7 @@
       <c r="E7" s="51">
         <v>2.09</v>
       </c>
-      <c r="F7" s="105">
+      <c r="F7" s="91">
         <v>2.96E-19</v>
       </c>
       <c r="G7" s="52">
@@ -34497,7 +34497,7 @@
       <c r="E8" s="51">
         <v>2.09</v>
       </c>
-      <c r="F8" s="105">
+      <c r="F8" s="91">
         <v>3.7799999999999998E-19</v>
       </c>
       <c r="G8" s="52">
@@ -34539,7 +34539,7 @@
       <c r="E9" s="51">
         <v>2.09</v>
       </c>
-      <c r="F9" s="105">
+      <c r="F9" s="91">
         <v>7.5099999999999999E-19</v>
       </c>
       <c r="G9" s="52">
@@ -34581,7 +34581,7 @@
       <c r="E10" s="51">
         <v>2.09</v>
       </c>
-      <c r="F10" s="105">
+      <c r="F10" s="91">
         <v>1.08E-18</v>
       </c>
       <c r="G10" s="52">
@@ -34623,7 +34623,7 @@
       <c r="E11" s="51">
         <v>2.09</v>
       </c>
-      <c r="F11" s="105">
+      <c r="F11" s="91">
         <v>2.61E-18</v>
       </c>
       <c r="G11" s="52">
